--- a/Logs.xlsx
+++ b/Logs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeevan A. Sawalkar\Desktop\Self Study\00 React js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB155CA-D4C9-41BB-865A-36675B44267F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE35D16-1F7E-4A26-9FDC-49168BB67619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Sr no</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>installing react js</t>
+  </si>
+  <si>
+    <t>Uptil click events + upper videos basic stuff</t>
+  </si>
+  <si>
+    <t>hook function - changing values on btn click</t>
   </si>
 </sst>
 </file>
@@ -383,14 +389,14 @@
   <dimension ref="B3:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="8.88671875" style="2"/>
     <col min="4" max="4" width="23.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -452,20 +458,38 @@
       <c r="B8" s="2">
         <v>5</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>6</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>7</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">

--- a/Logs.xlsx
+++ b/Logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeevan A. Sawalkar\Desktop\Self Study\00 React js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE35D16-1F7E-4A26-9FDC-49168BB67619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D2D769-272B-4C71-B802-97094F2495D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Sr no</t>
   </si>
@@ -55,6 +55,33 @@
   </si>
   <si>
     <t>hook function - changing values on btn click</t>
+  </si>
+  <si>
+    <t>chrome extensions</t>
+  </si>
+  <si>
+    <t>outputting lists - basic</t>
+  </si>
+  <si>
+    <t>using props</t>
+  </si>
+  <si>
+    <t>filtering records</t>
+  </si>
+  <si>
+    <t>deleting records</t>
+  </si>
+  <si>
+    <t>use effect hook basics</t>
+  </si>
+  <si>
+    <t>use effect hook - dependency basics</t>
+  </si>
+  <si>
+    <t>json server install &amp; create .db json file</t>
+  </si>
+  <si>
+    <t>fetching data with use effect</t>
   </si>
 </sst>
 </file>
@@ -386,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:E13"/>
+  <dimension ref="B3:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,10 +523,99 @@
       <c r="B12" s="2">
         <v>9</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
